--- a/XcartTestNG/testData.xlsx
+++ b/XcartTestNG/testData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>Login</t>
   </si>
@@ -143,13 +143,17 @@
   </si>
   <si>
     <t>anhttv31123</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,13 +547,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -597,7 +601,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -613,7 +617,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -637,7 +641,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -653,12 +657,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="10.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="10.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -709,6 +713,9 @@
       <c r="H2" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -732,6 +739,9 @@
       <c r="H3" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -755,13 +765,16 @@
       <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3:C4" r:id="rId2" display="vann@gmail.com"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId25"/>
+    <hyperlink ref="C3:C4" r:id="rId26" display="vann@gmail.com"/>
+    <hyperlink ref="C3" r:id="rId27"/>
+    <hyperlink ref="C4" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
